--- a/docs/fims/neon_example/NPN_raw_data_leaf_example_trunc.xlsx
+++ b/docs/fims/neon_example/NPN_raw_data_leaf_example_trunc.xlsx
@@ -12,10 +12,10 @@
     <workbookView xWindow="1700" yWindow="460" windowWidth="26120" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="NPN_raw_data_ME_CO_4- species_2" sheetId="1" r:id="rId1"/>
+    <sheet name="Samples" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'NPN_raw_data_ME_CO_4- species_2'!$A$1:$K$144</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Samples!$A$1:$K$144</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -909,7 +909,7 @@
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="960" activePane="bottomLeft"/>
       <selection sqref="A1:XFD1048576"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
